--- a/Bases de datos/Base de datos VaR.xlsx
+++ b/Bases de datos/Base de datos VaR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia Fonseca\Documents\GitHub\Analisis-Econometrico\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17A60FE-85A1-4A27-BCFE-61FBAC5ED491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9484A6-561E-44B9-B7F8-5703D43AC876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Fecha</t>
   </si>
@@ -43,7 +43,10 @@
     <t>PIB_REAL_Noruega</t>
   </si>
   <si>
-    <t>PIB_REAL_España</t>
+    <t>Gasto</t>
+  </si>
+  <si>
+    <t>PIB</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4734E8D4-D191-47D1-899D-75A6B4466E5A}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -985,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07E5A18-2EF2-4E99-B18C-2EADBA2DF4D6}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
